--- a/artfynd/A 13749-2023.xlsx
+++ b/artfynd/A 13749-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111896643</v>
+        <v>111896654</v>
       </c>
       <c r="B2" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575038.7114136803</v>
+        <v>575072.6962527435</v>
       </c>
       <c r="R2" t="n">
-        <v>6703416.194821274</v>
+        <v>6703421.833381963</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111896644</v>
+        <v>111896636</v>
       </c>
       <c r="B3" t="n">
         <v>90332</v>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575036.4083237475</v>
+        <v>575108.85141061</v>
       </c>
       <c r="R3" t="n">
-        <v>6703431.936489306</v>
+        <v>6703418.142308297</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896637</v>
+        <v>111896642</v>
       </c>
       <c r="B4" t="n">
         <v>90332</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575088.0587098968</v>
+        <v>575014.1091647458</v>
       </c>
       <c r="R4" t="n">
-        <v>6703396.00058554</v>
+        <v>6703387.066676207</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111896653</v>
+        <v>111896640</v>
       </c>
       <c r="B6" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575075.050630242</v>
+        <v>575025.3556637274</v>
       </c>
       <c r="R6" t="n">
-        <v>6703403.625642136</v>
+        <v>6703369.042946251</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111896635</v>
+        <v>111896637</v>
       </c>
       <c r="B7" t="n">
         <v>90332</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575037.2974304935</v>
+        <v>575088.0587098968</v>
       </c>
       <c r="R7" t="n">
-        <v>6703389.027347369</v>
+        <v>6703396.00058554</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111883983</v>
+        <v>111884471</v>
       </c>
       <c r="B8" t="n">
-        <v>90332</v>
+        <v>88899</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4769</v>
+        <v>3286</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575058.3527020445</v>
+        <v>575020.8210917887</v>
       </c>
       <c r="R8" t="n">
-        <v>6703446.206921679</v>
+        <v>6703397.074168184</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111896640</v>
+        <v>111883983</v>
       </c>
       <c r="B9" t="n">
         <v>90332</v>
@@ -1499,16 +1499,17 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575025.3556637274</v>
+        <v>575058.3527020445</v>
       </c>
       <c r="R9" t="n">
-        <v>6703369.042946251</v>
+        <v>6703446.206921679</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1565,19 +1566,19 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111896652</v>
+        <v>111896653</v>
       </c>
       <c r="B10" t="n">
         <v>89183</v>
@@ -1617,10 +1618,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575066.556649723</v>
+        <v>575075.050630242</v>
       </c>
       <c r="R10" t="n">
-        <v>6703455.751857814</v>
+        <v>6703403.625642136</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1689,7 +1690,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111896636</v>
+        <v>111896633</v>
       </c>
       <c r="B11" t="n">
         <v>90332</v>
@@ -1729,10 +1730,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575108.85141061</v>
+        <v>575100.4050603262</v>
       </c>
       <c r="R11" t="n">
-        <v>6703418.142308297</v>
+        <v>6703444.118284944</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1801,10 +1802,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111896690</v>
+        <v>111896635</v>
       </c>
       <c r="B12" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1817,21 +1818,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1841,10 +1842,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575060.2881161601</v>
+        <v>575037.2974304935</v>
       </c>
       <c r="R12" t="n">
-        <v>6703376.67477417</v>
+        <v>6703389.027347369</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1895,7 +1896,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111896633</v>
+        <v>111896643</v>
       </c>
       <c r="B13" t="n">
         <v>90332</v>
@@ -1954,10 +1954,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575100.4050603262</v>
+        <v>575038.7114136803</v>
       </c>
       <c r="R13" t="n">
-        <v>6703444.118284944</v>
+        <v>6703416.194821274</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2026,10 +2026,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111896638</v>
+        <v>111896690</v>
       </c>
       <c r="B14" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2042,21 +2042,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575087.1320314853</v>
+        <v>575060.2881161601</v>
       </c>
       <c r="R14" t="n">
-        <v>6703393.020834555</v>
+        <v>6703376.67477417</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2120,6 +2120,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2138,10 +2139,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111884133</v>
+        <v>111884093</v>
       </c>
       <c r="B15" t="n">
-        <v>88899</v>
+        <v>98535</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2150,39 +2151,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3286</v>
+        <v>222498</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575059.034285416</v>
+        <v>575065.9914513066</v>
       </c>
       <c r="R15" t="n">
-        <v>6703389.477814267</v>
+        <v>6703387.648325931</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2251,10 +2252,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111896654</v>
+        <v>111884133</v>
       </c>
       <c r="B16" t="n">
-        <v>89183</v>
+        <v>88899</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2263,38 +2264,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3215</v>
+        <v>3286</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575072.6962527435</v>
+        <v>575059.034285416</v>
       </c>
       <c r="R16" t="n">
-        <v>6703421.833381963</v>
+        <v>6703389.477814267</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2351,19 +2353,19 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111896639</v>
+        <v>111896641</v>
       </c>
       <c r="B17" t="n">
         <v>90332</v>
@@ -2403,10 +2405,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575089.384229039</v>
+        <v>575021.3626164712</v>
       </c>
       <c r="R17" t="n">
-        <v>6703379.745088123</v>
+        <v>6703370.933926445</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2475,10 +2477,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111884471</v>
+        <v>111896652</v>
       </c>
       <c r="B18" t="n">
-        <v>88899</v>
+        <v>89183</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2487,39 +2489,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3286</v>
+        <v>3215</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575020.8210917887</v>
+        <v>575066.556649723</v>
       </c>
       <c r="R18" t="n">
-        <v>6703397.074168184</v>
+        <v>6703455.751857814</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2576,22 +2577,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111884093</v>
+        <v>111896655</v>
       </c>
       <c r="B19" t="n">
-        <v>98535</v>
+        <v>89183</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2604,35 +2605,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>222498</v>
+        <v>3215</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575065.9914513066</v>
+        <v>575104.6742508161</v>
       </c>
       <c r="R19" t="n">
-        <v>6703387.648325931</v>
+        <v>6703428.910891063</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2689,19 +2689,19 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111896642</v>
+        <v>111896638</v>
       </c>
       <c r="B20" t="n">
         <v>90332</v>
@@ -2741,10 +2741,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>575014.1091647458</v>
+        <v>575087.1320314853</v>
       </c>
       <c r="R20" t="n">
-        <v>6703387.066676207</v>
+        <v>6703393.020834555</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111896641</v>
+        <v>111896644</v>
       </c>
       <c r="B21" t="n">
         <v>90332</v>
@@ -2853,10 +2853,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575021.3626164712</v>
+        <v>575036.4083237475</v>
       </c>
       <c r="R21" t="n">
-        <v>6703370.933926445</v>
+        <v>6703431.936489306</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2925,10 +2925,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111896655</v>
+        <v>111896639</v>
       </c>
       <c r="B22" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2941,21 +2941,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2965,10 +2965,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575104.6742508161</v>
+        <v>575089.384229039</v>
       </c>
       <c r="R22" t="n">
-        <v>6703428.910891063</v>
+        <v>6703379.745088123</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>

--- a/artfynd/A 13749-2023.xlsx
+++ b/artfynd/A 13749-2023.xlsx
@@ -2026,10 +2026,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111896690</v>
+        <v>111884093</v>
       </c>
       <c r="B14" t="n">
-        <v>90687</v>
+        <v>98535</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2042,34 +2042,35 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575060.2881161601</v>
+        <v>575065.9914513066</v>
       </c>
       <c r="R14" t="n">
-        <v>6703376.67477417</v>
+        <v>6703387.648325931</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2120,29 +2121,28 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111884093</v>
+        <v>111884133</v>
       </c>
       <c r="B15" t="n">
-        <v>98535</v>
+        <v>88899</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2151,39 +2151,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>222498</v>
+        <v>3286</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575065.9914513066</v>
+        <v>575059.034285416</v>
       </c>
       <c r="R15" t="n">
-        <v>6703387.648325931</v>
+        <v>6703389.477814267</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111884133</v>
+        <v>111896690</v>
       </c>
       <c r="B16" t="n">
-        <v>88899</v>
+        <v>90687</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2264,39 +2264,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3286</v>
+        <v>5964</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575059.034285416</v>
+        <v>575060.2881161601</v>
       </c>
       <c r="R16" t="n">
-        <v>6703389.477814267</v>
+        <v>6703376.67477417</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2347,18 +2346,19 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>

--- a/artfynd/A 13749-2023.xlsx
+++ b/artfynd/A 13749-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111896654</v>
+        <v>111883983</v>
       </c>
       <c r="B2" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,35 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575072.6962527435</v>
+        <v>575058.3527020445</v>
       </c>
       <c r="R2" t="n">
-        <v>6703421.833381963</v>
+        <v>6703446.206921679</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -780,19 +781,19 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111896636</v>
+        <v>111896640</v>
       </c>
       <c r="B3" t="n">
         <v>90332</v>
@@ -832,10 +833,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575108.85141061</v>
+        <v>575025.3556637274</v>
       </c>
       <c r="R3" t="n">
-        <v>6703418.142308297</v>
+        <v>6703369.042946251</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -904,10 +905,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896642</v>
+        <v>111896654</v>
       </c>
       <c r="B4" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +921,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +945,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575014.1091647458</v>
+        <v>575072.6962527435</v>
       </c>
       <c r="R4" t="n">
-        <v>6703387.066676207</v>
+        <v>6703421.833381963</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1016,7 +1017,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111896634</v>
+        <v>111896642</v>
       </c>
       <c r="B5" t="n">
         <v>90332</v>
@@ -1056,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575048.3395925189</v>
+        <v>575014.1091647458</v>
       </c>
       <c r="R5" t="n">
-        <v>6703452.413791304</v>
+        <v>6703387.066676207</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1128,10 +1129,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111896640</v>
+        <v>111884133</v>
       </c>
       <c r="B6" t="n">
-        <v>90332</v>
+        <v>88899</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,38 +1141,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4769</v>
+        <v>3286</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575025.3556637274</v>
+        <v>575059.034285416</v>
       </c>
       <c r="R6" t="n">
-        <v>6703369.042946251</v>
+        <v>6703389.477814267</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1228,19 +1230,19 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111896637</v>
+        <v>111896644</v>
       </c>
       <c r="B7" t="n">
         <v>90332</v>
@@ -1280,10 +1282,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575088.0587098968</v>
+        <v>575036.4083237475</v>
       </c>
       <c r="R7" t="n">
-        <v>6703396.00058554</v>
+        <v>6703431.936489306</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1352,10 +1354,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111884471</v>
+        <v>111896639</v>
       </c>
       <c r="B8" t="n">
-        <v>88899</v>
+        <v>90332</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,39 +1366,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3286</v>
+        <v>4769</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575020.8210917887</v>
+        <v>575089.384229039</v>
       </c>
       <c r="R8" t="n">
-        <v>6703397.074168184</v>
+        <v>6703379.745088123</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1453,19 +1454,19 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111883983</v>
+        <v>111896641</v>
       </c>
       <c r="B9" t="n">
         <v>90332</v>
@@ -1499,17 +1500,16 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575058.3527020445</v>
+        <v>575021.3626164712</v>
       </c>
       <c r="R9" t="n">
-        <v>6703446.206921679</v>
+        <v>6703370.933926445</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1566,22 +1566,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111896653</v>
+        <v>111896637</v>
       </c>
       <c r="B10" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1594,21 +1594,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1618,10 +1618,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575075.050630242</v>
+        <v>575088.0587098968</v>
       </c>
       <c r="R10" t="n">
-        <v>6703403.625642136</v>
+        <v>6703396.00058554</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1690,10 +1690,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111896633</v>
+        <v>111896653</v>
       </c>
       <c r="B11" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1706,21 +1706,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1730,10 +1730,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575100.4050603262</v>
+        <v>575075.050630242</v>
       </c>
       <c r="R11" t="n">
-        <v>6703444.118284944</v>
+        <v>6703403.625642136</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1802,10 +1802,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111896635</v>
+        <v>111896652</v>
       </c>
       <c r="B12" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1818,21 +1818,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575037.2974304935</v>
+        <v>575066.556649723</v>
       </c>
       <c r="R12" t="n">
-        <v>6703389.027347369</v>
+        <v>6703455.751857814</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1914,10 +1914,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111896643</v>
+        <v>111896655</v>
       </c>
       <c r="B13" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1930,21 +1930,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1954,10 +1954,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575038.7114136803</v>
+        <v>575104.6742508161</v>
       </c>
       <c r="R13" t="n">
-        <v>6703416.194821274</v>
+        <v>6703428.910891063</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2139,10 +2139,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111884133</v>
+        <v>111896633</v>
       </c>
       <c r="B15" t="n">
-        <v>88899</v>
+        <v>90332</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2151,39 +2151,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3286</v>
+        <v>4769</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575059.034285416</v>
+        <v>575100.4050603262</v>
       </c>
       <c r="R15" t="n">
-        <v>6703389.477814267</v>
+        <v>6703444.118284944</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2240,12 +2239,12 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
@@ -2365,7 +2364,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111896641</v>
+        <v>111896634</v>
       </c>
       <c r="B17" t="n">
         <v>90332</v>
@@ -2405,10 +2404,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575021.3626164712</v>
+        <v>575048.3395925189</v>
       </c>
       <c r="R17" t="n">
-        <v>6703370.933926445</v>
+        <v>6703452.413791304</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2477,10 +2476,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111896652</v>
+        <v>111884471</v>
       </c>
       <c r="B18" t="n">
-        <v>89183</v>
+        <v>88899</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2489,38 +2488,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3215</v>
+        <v>3286</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575066.556649723</v>
+        <v>575020.8210917887</v>
       </c>
       <c r="R18" t="n">
-        <v>6703455.751857814</v>
+        <v>6703397.074168184</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2577,22 +2577,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111896655</v>
+        <v>111896635</v>
       </c>
       <c r="B19" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2605,21 +2605,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575104.6742508161</v>
+        <v>575037.2974304935</v>
       </c>
       <c r="R19" t="n">
-        <v>6703428.910891063</v>
+        <v>6703389.027347369</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111896644</v>
+        <v>111896636</v>
       </c>
       <c r="B21" t="n">
         <v>90332</v>
@@ -2853,10 +2853,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575036.4083237475</v>
+        <v>575108.85141061</v>
       </c>
       <c r="R21" t="n">
-        <v>6703431.936489306</v>
+        <v>6703418.142308297</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111896639</v>
+        <v>111896643</v>
       </c>
       <c r="B22" t="n">
         <v>90332</v>
@@ -2965,10 +2965,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575089.384229039</v>
+        <v>575038.7114136803</v>
       </c>
       <c r="R22" t="n">
-        <v>6703379.745088123</v>
+        <v>6703416.194821274</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>

--- a/artfynd/A 13749-2023.xlsx
+++ b/artfynd/A 13749-2023.xlsx
@@ -2364,10 +2364,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111896634</v>
+        <v>111884471</v>
       </c>
       <c r="B17" t="n">
-        <v>90332</v>
+        <v>88899</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2376,38 +2376,39 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4769</v>
+        <v>3286</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575048.3395925189</v>
+        <v>575020.8210917887</v>
       </c>
       <c r="R17" t="n">
-        <v>6703452.413791304</v>
+        <v>6703397.074168184</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2464,22 +2465,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111884471</v>
+        <v>111896634</v>
       </c>
       <c r="B18" t="n">
-        <v>88899</v>
+        <v>90332</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,39 +2489,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3286</v>
+        <v>4769</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575020.8210917887</v>
+        <v>575048.3395925189</v>
       </c>
       <c r="R18" t="n">
-        <v>6703397.074168184</v>
+        <v>6703452.413791304</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2577,12 +2577,12 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>

--- a/artfynd/A 13749-2023.xlsx
+++ b/artfynd/A 13749-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111883983</v>
+        <v>111896643</v>
       </c>
       <c r="B2" t="n">
         <v>90332</v>
@@ -714,17 +714,16 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575058.3527020445</v>
+        <v>575038.7114136803</v>
       </c>
       <c r="R2" t="n">
-        <v>6703446.206921679</v>
+        <v>6703416.194821274</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -781,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111896640</v>
+        <v>111896653</v>
       </c>
       <c r="B3" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -833,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575025.3556637274</v>
+        <v>575075.050630242</v>
       </c>
       <c r="R3" t="n">
-        <v>6703369.042946251</v>
+        <v>6703403.625642136</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -905,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896654</v>
+        <v>111896633</v>
       </c>
       <c r="B4" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -921,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -945,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575072.6962527435</v>
+        <v>575100.4050603262</v>
       </c>
       <c r="R4" t="n">
-        <v>6703421.833381963</v>
+        <v>6703444.118284944</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1017,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111896642</v>
+        <v>111884093</v>
       </c>
       <c r="B5" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1033,34 +1032,35 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575014.1091647458</v>
+        <v>575065.9914513066</v>
       </c>
       <c r="R5" t="n">
-        <v>6703387.066676207</v>
+        <v>6703387.648325931</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1117,22 +1117,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111884133</v>
+        <v>111883983</v>
       </c>
       <c r="B6" t="n">
-        <v>88899</v>
+        <v>90332</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1141,25 +1141,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3286</v>
+        <v>4769</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1170,10 +1170,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575059.034285416</v>
+        <v>575058.3527020445</v>
       </c>
       <c r="R6" t="n">
-        <v>6703389.477814267</v>
+        <v>6703446.206921679</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1242,10 +1242,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111896644</v>
+        <v>111896654</v>
       </c>
       <c r="B7" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1258,21 +1258,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1282,10 +1282,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575036.4083237475</v>
+        <v>575072.6962527435</v>
       </c>
       <c r="R7" t="n">
-        <v>6703431.936489306</v>
+        <v>6703421.833381963</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111896639</v>
+        <v>111896655</v>
       </c>
       <c r="B8" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,21 +1370,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1394,10 +1394,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575089.384229039</v>
+        <v>575104.6742508161</v>
       </c>
       <c r="R8" t="n">
-        <v>6703379.745088123</v>
+        <v>6703428.910891063</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111896641</v>
+        <v>111896640</v>
       </c>
       <c r="B9" t="n">
         <v>90332</v>
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575021.3626164712</v>
+        <v>575025.3556637274</v>
       </c>
       <c r="R9" t="n">
-        <v>6703370.933926445</v>
+        <v>6703369.042946251</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111896637</v>
+        <v>111896642</v>
       </c>
       <c r="B10" t="n">
         <v>90332</v>
@@ -1618,10 +1618,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575088.0587098968</v>
+        <v>575014.1091647458</v>
       </c>
       <c r="R10" t="n">
-        <v>6703396.00058554</v>
+        <v>6703387.066676207</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1690,10 +1690,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111896653</v>
+        <v>111896637</v>
       </c>
       <c r="B11" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1706,21 +1706,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1730,10 +1730,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575075.050630242</v>
+        <v>575088.0587098968</v>
       </c>
       <c r="R11" t="n">
-        <v>6703403.625642136</v>
+        <v>6703396.00058554</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1802,10 +1802,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111896652</v>
+        <v>111884133</v>
       </c>
       <c r="B12" t="n">
-        <v>89183</v>
+        <v>88899</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1814,38 +1814,39 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3215</v>
+        <v>3286</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575066.556649723</v>
+        <v>575059.034285416</v>
       </c>
       <c r="R12" t="n">
-        <v>6703455.751857814</v>
+        <v>6703389.477814267</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1902,22 +1903,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111896655</v>
+        <v>111896644</v>
       </c>
       <c r="B13" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1930,21 +1931,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1954,10 +1955,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575104.6742508161</v>
+        <v>575036.4083237475</v>
       </c>
       <c r="R13" t="n">
-        <v>6703428.910891063</v>
+        <v>6703431.936489306</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2026,10 +2027,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111884093</v>
+        <v>111896690</v>
       </c>
       <c r="B14" t="n">
-        <v>98535</v>
+        <v>90687</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2042,35 +2043,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575065.9914513066</v>
+        <v>575060.2881161601</v>
       </c>
       <c r="R14" t="n">
-        <v>6703387.648325931</v>
+        <v>6703376.67477417</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2121,25 +2121,26 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111896633</v>
+        <v>111896635</v>
       </c>
       <c r="B15" t="n">
         <v>90332</v>
@@ -2179,10 +2180,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575100.4050603262</v>
+        <v>575037.2974304935</v>
       </c>
       <c r="R15" t="n">
-        <v>6703444.118284944</v>
+        <v>6703389.027347369</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2251,10 +2252,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111896690</v>
+        <v>111896639</v>
       </c>
       <c r="B16" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2267,21 +2268,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2291,10 +2292,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575060.2881161601</v>
+        <v>575089.384229039</v>
       </c>
       <c r="R16" t="n">
-        <v>6703376.67477417</v>
+        <v>6703379.745088123</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2345,7 +2346,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2364,10 +2364,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111884471</v>
+        <v>111896638</v>
       </c>
       <c r="B17" t="n">
-        <v>88899</v>
+        <v>90332</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2376,39 +2376,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3286</v>
+        <v>4769</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575020.8210917887</v>
+        <v>575087.1320314853</v>
       </c>
       <c r="R17" t="n">
-        <v>6703397.074168184</v>
+        <v>6703393.020834555</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2465,19 +2464,19 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111896634</v>
+        <v>111896636</v>
       </c>
       <c r="B18" t="n">
         <v>90332</v>
@@ -2517,10 +2516,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575048.3395925189</v>
+        <v>575108.85141061</v>
       </c>
       <c r="R18" t="n">
-        <v>6703452.413791304</v>
+        <v>6703418.142308297</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2589,7 +2588,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111896635</v>
+        <v>111896634</v>
       </c>
       <c r="B19" t="n">
         <v>90332</v>
@@ -2629,10 +2628,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575037.2974304935</v>
+        <v>575048.3395925189</v>
       </c>
       <c r="R19" t="n">
-        <v>6703389.027347369</v>
+        <v>6703452.413791304</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2701,7 +2700,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111896638</v>
+        <v>111896641</v>
       </c>
       <c r="B20" t="n">
         <v>90332</v>
@@ -2741,10 +2740,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>575087.1320314853</v>
+        <v>575021.3626164712</v>
       </c>
       <c r="R20" t="n">
-        <v>6703393.020834555</v>
+        <v>6703370.933926445</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2813,10 +2812,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111896636</v>
+        <v>111896652</v>
       </c>
       <c r="B21" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2829,21 +2828,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2853,10 +2852,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575108.85141061</v>
+        <v>575066.556649723</v>
       </c>
       <c r="R21" t="n">
-        <v>6703418.142308297</v>
+        <v>6703455.751857814</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2925,10 +2924,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111896643</v>
+        <v>111884471</v>
       </c>
       <c r="B22" t="n">
-        <v>90332</v>
+        <v>88899</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2937,38 +2936,39 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4769</v>
+        <v>3286</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575038.7114136803</v>
+        <v>575020.8210917887</v>
       </c>
       <c r="R22" t="n">
-        <v>6703416.194821274</v>
+        <v>6703397.074168184</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3025,12 +3025,12 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>

--- a/artfynd/A 13749-2023.xlsx
+++ b/artfynd/A 13749-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111896643</v>
+        <v>111896639</v>
       </c>
       <c r="B2" t="n">
         <v>90332</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575038.7114136803</v>
+        <v>575089.384229039</v>
       </c>
       <c r="R2" t="n">
-        <v>6703416.194821274</v>
+        <v>6703379.745088123</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111896653</v>
+        <v>111884471</v>
       </c>
       <c r="B3" t="n">
-        <v>89183</v>
+        <v>88899</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,38 +804,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3215</v>
+        <v>3286</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575075.050630242</v>
+        <v>575020.8210917887</v>
       </c>
       <c r="R3" t="n">
-        <v>6703403.625642136</v>
+        <v>6703397.074168184</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -892,22 +893,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896633</v>
+        <v>111896690</v>
       </c>
       <c r="B4" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +921,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +945,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575100.4050603262</v>
+        <v>575060.2881161601</v>
       </c>
       <c r="R4" t="n">
-        <v>6703444.118284944</v>
+        <v>6703376.67477417</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -998,6 +999,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1016,10 +1018,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111884093</v>
+        <v>111896634</v>
       </c>
       <c r="B5" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,35 +1034,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575065.9914513066</v>
+        <v>575048.3395925189</v>
       </c>
       <c r="R5" t="n">
-        <v>6703387.648325931</v>
+        <v>6703452.413791304</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1117,22 +1118,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111883983</v>
+        <v>111896653</v>
       </c>
       <c r="B6" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,35 +1146,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575058.3527020445</v>
+        <v>575075.050630242</v>
       </c>
       <c r="R6" t="n">
-        <v>6703446.206921679</v>
+        <v>6703403.625642136</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1230,22 +1230,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111896654</v>
+        <v>111896641</v>
       </c>
       <c r="B7" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1258,21 +1258,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1282,10 +1282,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575072.6962527435</v>
+        <v>575021.3626164712</v>
       </c>
       <c r="R7" t="n">
-        <v>6703421.833381963</v>
+        <v>6703370.933926445</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111896655</v>
+        <v>111896633</v>
       </c>
       <c r="B8" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,21 +1370,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1394,10 +1394,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575104.6742508161</v>
+        <v>575100.4050603262</v>
       </c>
       <c r="R8" t="n">
-        <v>6703428.910891063</v>
+        <v>6703444.118284944</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111896640</v>
+        <v>111896644</v>
       </c>
       <c r="B9" t="n">
         <v>90332</v>
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575025.3556637274</v>
+        <v>575036.4083237475</v>
       </c>
       <c r="R9" t="n">
-        <v>6703369.042946251</v>
+        <v>6703431.936489306</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111896637</v>
+        <v>111896640</v>
       </c>
       <c r="B11" t="n">
         <v>90332</v>
@@ -1730,10 +1730,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575088.0587098968</v>
+        <v>575025.3556637274</v>
       </c>
       <c r="R11" t="n">
-        <v>6703396.00058554</v>
+        <v>6703369.042946251</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1802,10 +1802,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111884133</v>
+        <v>111896643</v>
       </c>
       <c r="B12" t="n">
-        <v>88899</v>
+        <v>90332</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1814,39 +1814,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3286</v>
+        <v>4769</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575059.034285416</v>
+        <v>575038.7114136803</v>
       </c>
       <c r="R12" t="n">
-        <v>6703389.477814267</v>
+        <v>6703416.194821274</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1903,19 +1902,19 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111896644</v>
+        <v>111896638</v>
       </c>
       <c r="B13" t="n">
         <v>90332</v>
@@ -1955,10 +1954,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575036.4083237475</v>
+        <v>575087.1320314853</v>
       </c>
       <c r="R13" t="n">
-        <v>6703431.936489306</v>
+        <v>6703393.020834555</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2027,10 +2026,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111896690</v>
+        <v>111896637</v>
       </c>
       <c r="B14" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2043,21 +2042,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2067,10 +2066,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575060.2881161601</v>
+        <v>575088.0587098968</v>
       </c>
       <c r="R14" t="n">
-        <v>6703376.67477417</v>
+        <v>6703396.00058554</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2121,7 +2120,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2140,10 +2138,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111896635</v>
+        <v>111896654</v>
       </c>
       <c r="B15" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2156,21 +2154,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2180,10 +2178,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575037.2974304935</v>
+        <v>575072.6962527435</v>
       </c>
       <c r="R15" t="n">
-        <v>6703389.027347369</v>
+        <v>6703421.833381963</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2252,10 +2250,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111896639</v>
+        <v>111896655</v>
       </c>
       <c r="B16" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2268,21 +2266,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2292,10 +2290,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575089.384229039</v>
+        <v>575104.6742508161</v>
       </c>
       <c r="R16" t="n">
-        <v>6703379.745088123</v>
+        <v>6703428.910891063</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2364,7 +2362,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111896638</v>
+        <v>111896636</v>
       </c>
       <c r="B17" t="n">
         <v>90332</v>
@@ -2404,10 +2402,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575087.1320314853</v>
+        <v>575108.85141061</v>
       </c>
       <c r="R17" t="n">
-        <v>6703393.020834555</v>
+        <v>6703418.142308297</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2476,7 +2474,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111896636</v>
+        <v>111883983</v>
       </c>
       <c r="B18" t="n">
         <v>90332</v>
@@ -2510,16 +2508,17 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575108.85141061</v>
+        <v>575058.3527020445</v>
       </c>
       <c r="R18" t="n">
-        <v>6703418.142308297</v>
+        <v>6703446.206921679</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2576,19 +2575,19 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111896634</v>
+        <v>111896635</v>
       </c>
       <c r="B19" t="n">
         <v>90332</v>
@@ -2628,10 +2627,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575048.3395925189</v>
+        <v>575037.2974304935</v>
       </c>
       <c r="R19" t="n">
-        <v>6703452.413791304</v>
+        <v>6703389.027347369</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2700,10 +2699,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111896641</v>
+        <v>111884133</v>
       </c>
       <c r="B20" t="n">
-        <v>90332</v>
+        <v>88899</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2712,38 +2711,39 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4769</v>
+        <v>3286</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>575021.3626164712</v>
+        <v>575059.034285416</v>
       </c>
       <c r="R20" t="n">
-        <v>6703370.933926445</v>
+        <v>6703389.477814267</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2800,12 +2800,12 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
@@ -2924,10 +2924,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111884471</v>
+        <v>111884093</v>
       </c>
       <c r="B22" t="n">
-        <v>88899</v>
+        <v>98535</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2936,39 +2936,39 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3286</v>
+        <v>222498</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575020.8210917887</v>
+        <v>575065.9914513066</v>
       </c>
       <c r="R22" t="n">
-        <v>6703397.074168184</v>
+        <v>6703387.648325931</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>

--- a/artfynd/A 13749-2023.xlsx
+++ b/artfynd/A 13749-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111896639</v>
+        <v>111896638</v>
       </c>
       <c r="B2" t="n">
         <v>90332</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575089.384229039</v>
+        <v>575087.1320314853</v>
       </c>
       <c r="R2" t="n">
-        <v>6703379.745088123</v>
+        <v>6703393.020834555</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111884471</v>
+        <v>111896636</v>
       </c>
       <c r="B3" t="n">
-        <v>88899</v>
+        <v>90332</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,39 +804,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3286</v>
+        <v>4769</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575020.8210917887</v>
+        <v>575108.85141061</v>
       </c>
       <c r="R3" t="n">
-        <v>6703397.074168184</v>
+        <v>6703418.142308297</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -893,22 +892,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896690</v>
+        <v>111896637</v>
       </c>
       <c r="B4" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -921,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -945,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575060.2881161601</v>
+        <v>575088.0587098968</v>
       </c>
       <c r="R4" t="n">
-        <v>6703376.67477417</v>
+        <v>6703396.00058554</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -999,7 +998,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1018,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111896634</v>
+        <v>111896652</v>
       </c>
       <c r="B5" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1034,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1058,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575048.3395925189</v>
+        <v>575066.556649723</v>
       </c>
       <c r="R5" t="n">
-        <v>6703452.413791304</v>
+        <v>6703455.751857814</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1130,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111896653</v>
+        <v>111896635</v>
       </c>
       <c r="B6" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1146,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1170,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575075.050630242</v>
+        <v>575037.2974304935</v>
       </c>
       <c r="R6" t="n">
-        <v>6703403.625642136</v>
+        <v>6703389.027347369</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1242,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111896641</v>
+        <v>111884133</v>
       </c>
       <c r="B7" t="n">
-        <v>90332</v>
+        <v>88899</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1254,38 +1252,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4769</v>
+        <v>3286</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575021.3626164712</v>
+        <v>575059.034285416</v>
       </c>
       <c r="R7" t="n">
-        <v>6703370.933926445</v>
+        <v>6703389.477814267</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1342,22 +1341,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111896633</v>
+        <v>111884471</v>
       </c>
       <c r="B8" t="n">
-        <v>90332</v>
+        <v>88899</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1366,38 +1365,39 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4769</v>
+        <v>3286</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575100.4050603262</v>
+        <v>575020.8210917887</v>
       </c>
       <c r="R8" t="n">
-        <v>6703444.118284944</v>
+        <v>6703397.074168184</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1454,19 +1454,19 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111896644</v>
+        <v>111883983</v>
       </c>
       <c r="B9" t="n">
         <v>90332</v>
@@ -1500,16 +1500,17 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575036.4083237475</v>
+        <v>575058.3527020445</v>
       </c>
       <c r="R9" t="n">
-        <v>6703431.936489306</v>
+        <v>6703446.206921679</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1566,19 +1567,19 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111896642</v>
+        <v>111896634</v>
       </c>
       <c r="B10" t="n">
         <v>90332</v>
@@ -1618,10 +1619,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575014.1091647458</v>
+        <v>575048.3395925189</v>
       </c>
       <c r="R10" t="n">
-        <v>6703387.066676207</v>
+        <v>6703452.413791304</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1690,10 +1691,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111896640</v>
+        <v>111896690</v>
       </c>
       <c r="B11" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1706,21 +1707,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1730,10 +1731,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575025.3556637274</v>
+        <v>575060.2881161601</v>
       </c>
       <c r="R11" t="n">
-        <v>6703369.042946251</v>
+        <v>6703376.67477417</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1784,6 +1785,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1802,10 +1804,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111896643</v>
+        <v>111884093</v>
       </c>
       <c r="B12" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1818,34 +1820,35 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575038.7114136803</v>
+        <v>575065.9914513066</v>
       </c>
       <c r="R12" t="n">
-        <v>6703416.194821274</v>
+        <v>6703387.648325931</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1902,19 +1905,19 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111896638</v>
+        <v>111896640</v>
       </c>
       <c r="B13" t="n">
         <v>90332</v>
@@ -1954,10 +1957,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575087.1320314853</v>
+        <v>575025.3556637274</v>
       </c>
       <c r="R13" t="n">
-        <v>6703393.020834555</v>
+        <v>6703369.042946251</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2026,10 +2029,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111896637</v>
+        <v>111896654</v>
       </c>
       <c r="B14" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2042,21 +2045,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2066,10 +2069,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575088.0587098968</v>
+        <v>575072.6962527435</v>
       </c>
       <c r="R14" t="n">
-        <v>6703396.00058554</v>
+        <v>6703421.833381963</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2138,7 +2141,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111896654</v>
+        <v>111896655</v>
       </c>
       <c r="B15" t="n">
         <v>89183</v>
@@ -2178,10 +2181,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575072.6962527435</v>
+        <v>575104.6742508161</v>
       </c>
       <c r="R15" t="n">
-        <v>6703421.833381963</v>
+        <v>6703428.910891063</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2250,10 +2253,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111896655</v>
+        <v>111896643</v>
       </c>
       <c r="B16" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2266,21 +2269,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2290,10 +2293,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575104.6742508161</v>
+        <v>575038.7114136803</v>
       </c>
       <c r="R16" t="n">
-        <v>6703428.910891063</v>
+        <v>6703416.194821274</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2362,10 +2365,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111896636</v>
+        <v>111896653</v>
       </c>
       <c r="B17" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2378,21 +2381,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2402,10 +2405,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575108.85141061</v>
+        <v>575075.050630242</v>
       </c>
       <c r="R17" t="n">
-        <v>6703418.142308297</v>
+        <v>6703403.625642136</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2474,7 +2477,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111883983</v>
+        <v>111896639</v>
       </c>
       <c r="B18" t="n">
         <v>90332</v>
@@ -2508,17 +2511,16 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575058.3527020445</v>
+        <v>575089.384229039</v>
       </c>
       <c r="R18" t="n">
-        <v>6703446.206921679</v>
+        <v>6703379.745088123</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2575,19 +2577,19 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111896635</v>
+        <v>111896644</v>
       </c>
       <c r="B19" t="n">
         <v>90332</v>
@@ -2627,10 +2629,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575037.2974304935</v>
+        <v>575036.4083237475</v>
       </c>
       <c r="R19" t="n">
-        <v>6703389.027347369</v>
+        <v>6703431.936489306</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2699,10 +2701,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111884133</v>
+        <v>111896641</v>
       </c>
       <c r="B20" t="n">
-        <v>88899</v>
+        <v>90332</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2711,39 +2713,38 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3286</v>
+        <v>4769</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>575059.034285416</v>
+        <v>575021.3626164712</v>
       </c>
       <c r="R20" t="n">
-        <v>6703389.477814267</v>
+        <v>6703370.933926445</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2800,22 +2801,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111896652</v>
+        <v>111896633</v>
       </c>
       <c r="B21" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2828,21 +2829,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2852,10 +2853,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575066.556649723</v>
+        <v>575100.4050603262</v>
       </c>
       <c r="R21" t="n">
-        <v>6703455.751857814</v>
+        <v>6703444.118284944</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2924,10 +2925,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111884093</v>
+        <v>111896642</v>
       </c>
       <c r="B22" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2940,35 +2941,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575065.9914513066</v>
+        <v>575014.1091647458</v>
       </c>
       <c r="R22" t="n">
-        <v>6703387.648325931</v>
+        <v>6703387.066676207</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3025,12 +3025,12 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>

--- a/artfynd/A 13749-2023.xlsx
+++ b/artfynd/A 13749-2023.xlsx
@@ -1240,7 +1240,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111884133</v>
+        <v>111884471</v>
       </c>
       <c r="B7" t="n">
         <v>88899</v>
@@ -1281,10 +1281,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575059.034285416</v>
+        <v>575020.8210917887</v>
       </c>
       <c r="R7" t="n">
-        <v>6703389.477814267</v>
+        <v>6703397.074168184</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111884471</v>
+        <v>111884133</v>
       </c>
       <c r="B8" t="n">
         <v>88899</v>
@@ -1394,10 +1394,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575020.8210917887</v>
+        <v>575059.034285416</v>
       </c>
       <c r="R8" t="n">
-        <v>6703397.074168184</v>
+        <v>6703389.477814267</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>

--- a/artfynd/A 13749-2023.xlsx
+++ b/artfynd/A 13749-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AY24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111896638</v>
+        <v>111896635</v>
       </c>
       <c r="B2" t="n">
         <v>90332</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575087.1320314853</v>
+        <v>575037.2974304935</v>
       </c>
       <c r="R2" t="n">
-        <v>6703393.020834555</v>
+        <v>6703389.027347369</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111896636</v>
+        <v>111896690</v>
       </c>
       <c r="B3" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575108.85141061</v>
+        <v>575060.2881161601</v>
       </c>
       <c r="R3" t="n">
-        <v>6703418.142308297</v>
+        <v>6703376.67477417</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -886,6 +886,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -904,7 +905,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896637</v>
+        <v>111896638</v>
       </c>
       <c r="B4" t="n">
         <v>90332</v>
@@ -944,10 +945,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575088.0587098968</v>
+        <v>575087.1320314853</v>
       </c>
       <c r="R4" t="n">
-        <v>6703396.00058554</v>
+        <v>6703393.020834555</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1016,10 +1017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111896652</v>
+        <v>111884093</v>
       </c>
       <c r="B5" t="n">
-        <v>89183</v>
+        <v>98535</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,34 +1033,35 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3215</v>
+        <v>222498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575066.556649723</v>
+        <v>575065.9914513066</v>
       </c>
       <c r="R5" t="n">
-        <v>6703455.751857814</v>
+        <v>6703387.648325931</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1116,19 +1118,19 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111896635</v>
+        <v>111896641</v>
       </c>
       <c r="B6" t="n">
         <v>90332</v>
@@ -1168,10 +1170,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575037.2974304935</v>
+        <v>575021.3626164712</v>
       </c>
       <c r="R6" t="n">
-        <v>6703389.027347369</v>
+        <v>6703370.933926445</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1240,10 +1242,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111884471</v>
+        <v>111896637</v>
       </c>
       <c r="B7" t="n">
-        <v>88899</v>
+        <v>90332</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,39 +1254,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3286</v>
+        <v>4769</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575020.8210917887</v>
+        <v>575088.0587098968</v>
       </c>
       <c r="R7" t="n">
-        <v>6703397.074168184</v>
+        <v>6703396.00058554</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1341,22 +1342,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111884133</v>
+        <v>111896640</v>
       </c>
       <c r="B8" t="n">
-        <v>88899</v>
+        <v>90332</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1365,39 +1366,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3286</v>
+        <v>4769</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575059.034285416</v>
+        <v>575025.3556637274</v>
       </c>
       <c r="R8" t="n">
-        <v>6703389.477814267</v>
+        <v>6703369.042946251</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1454,19 +1454,19 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111883983</v>
+        <v>111896633</v>
       </c>
       <c r="B9" t="n">
         <v>90332</v>
@@ -1500,17 +1500,16 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575058.3527020445</v>
+        <v>575100.4050603262</v>
       </c>
       <c r="R9" t="n">
-        <v>6703446.206921679</v>
+        <v>6703444.118284944</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1567,19 +1566,19 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111896634</v>
+        <v>111896639</v>
       </c>
       <c r="B10" t="n">
         <v>90332</v>
@@ -1619,10 +1618,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575048.3395925189</v>
+        <v>575089.384229039</v>
       </c>
       <c r="R10" t="n">
-        <v>6703452.413791304</v>
+        <v>6703379.745088123</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1691,10 +1690,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111896690</v>
+        <v>111896636</v>
       </c>
       <c r="B11" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1707,21 +1706,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1731,10 +1730,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575060.2881161601</v>
+        <v>575108.85141061</v>
       </c>
       <c r="R11" t="n">
-        <v>6703376.67477417</v>
+        <v>6703418.142308297</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1785,7 +1784,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1804,10 +1802,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111884093</v>
+        <v>111884133</v>
       </c>
       <c r="B12" t="n">
-        <v>98535</v>
+        <v>88899</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,39 +1814,39 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>222498</v>
+        <v>3286</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575065.9914513066</v>
+        <v>575059.034285416</v>
       </c>
       <c r="R12" t="n">
-        <v>6703387.648325931</v>
+        <v>6703389.477814267</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1917,7 +1915,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111896640</v>
+        <v>111883983</v>
       </c>
       <c r="B13" t="n">
         <v>90332</v>
@@ -1951,16 +1949,17 @@
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575025.3556637274</v>
+        <v>575058.3527020445</v>
       </c>
       <c r="R13" t="n">
-        <v>6703369.042946251</v>
+        <v>6703446.206921679</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2017,19 +2016,19 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111896654</v>
+        <v>111896653</v>
       </c>
       <c r="B14" t="n">
         <v>89183</v>
@@ -2069,10 +2068,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575072.6962527435</v>
+        <v>575075.050630242</v>
       </c>
       <c r="R14" t="n">
-        <v>6703421.833381963</v>
+        <v>6703403.625642136</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2141,10 +2140,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111896655</v>
+        <v>111896643</v>
       </c>
       <c r="B15" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2157,21 +2156,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2181,10 +2180,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575104.6742508161</v>
+        <v>575038.7114136803</v>
       </c>
       <c r="R15" t="n">
-        <v>6703428.910891063</v>
+        <v>6703416.194821274</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2253,10 +2252,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111896643</v>
+        <v>111896655</v>
       </c>
       <c r="B16" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2269,21 +2268,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2293,10 +2292,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575038.7114136803</v>
+        <v>575104.6742508161</v>
       </c>
       <c r="R16" t="n">
-        <v>6703416.194821274</v>
+        <v>6703428.910891063</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2365,10 +2364,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111896653</v>
+        <v>111896634</v>
       </c>
       <c r="B17" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2381,21 +2380,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2405,10 +2404,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575075.050630242</v>
+        <v>575048.3395925189</v>
       </c>
       <c r="R17" t="n">
-        <v>6703403.625642136</v>
+        <v>6703452.413791304</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2477,7 +2476,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111896639</v>
+        <v>111896642</v>
       </c>
       <c r="B18" t="n">
         <v>90332</v>
@@ -2517,10 +2516,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575089.384229039</v>
+        <v>575014.1091647458</v>
       </c>
       <c r="R18" t="n">
-        <v>6703379.745088123</v>
+        <v>6703387.066676207</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2589,10 +2588,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111896644</v>
+        <v>111884471</v>
       </c>
       <c r="B19" t="n">
-        <v>90332</v>
+        <v>88899</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2601,38 +2600,39 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4769</v>
+        <v>3286</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575036.4083237475</v>
+        <v>575020.8210917887</v>
       </c>
       <c r="R19" t="n">
-        <v>6703431.936489306</v>
+        <v>6703397.074168184</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2689,22 +2689,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111896641</v>
+        <v>111896652</v>
       </c>
       <c r="B20" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2717,21 +2717,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2741,10 +2741,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>575021.3626164712</v>
+        <v>575066.556649723</v>
       </c>
       <c r="R20" t="n">
-        <v>6703370.933926445</v>
+        <v>6703455.751857814</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111896633</v>
+        <v>111896654</v>
       </c>
       <c r="B21" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2829,21 +2829,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2853,10 +2853,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575100.4050603262</v>
+        <v>575072.6962527435</v>
       </c>
       <c r="R21" t="n">
-        <v>6703444.118284944</v>
+        <v>6703421.833381963</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111896642</v>
+        <v>111896644</v>
       </c>
       <c r="B22" t="n">
         <v>90332</v>
@@ -2965,10 +2965,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575014.1091647458</v>
+        <v>575036.4083237475</v>
       </c>
       <c r="R22" t="n">
-        <v>6703387.066676207</v>
+        <v>6703431.936489306</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3034,6 +3034,242 @@
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112204545</v>
+      </c>
+      <c r="B23" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Kratte Masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>575051.354848919</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6703378.463325701</v>
+      </c>
+      <c r="S23" t="n">
+        <v>15</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112204541</v>
+      </c>
+      <c r="B24" t="n">
+        <v>88966</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>5754</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Gultoppig fingersvamp</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Ramaria testaceoflava</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Kratte Masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>575058.4344827051</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6703442.261289957</v>
+      </c>
+      <c r="S24" t="n">
+        <v>15</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 13749-2023.xlsx
+++ b/artfynd/A 13749-2023.xlsx
@@ -1017,10 +1017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111884093</v>
+        <v>111896641</v>
       </c>
       <c r="B5" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1033,35 +1033,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575065.9914513066</v>
+        <v>575021.3626164712</v>
       </c>
       <c r="R5" t="n">
-        <v>6703387.648325931</v>
+        <v>6703370.933926445</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1118,22 +1117,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111896641</v>
+        <v>111884093</v>
       </c>
       <c r="B6" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1146,34 +1145,35 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575021.3626164712</v>
+        <v>575065.9914513066</v>
       </c>
       <c r="R6" t="n">
-        <v>6703370.933926445</v>
+        <v>6703387.648325931</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1230,12 +1230,12 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>

--- a/artfynd/A 13749-2023.xlsx
+++ b/artfynd/A 13749-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111896635</v>
+        <v>111884471</v>
       </c>
       <c r="B2" t="n">
-        <v>90332</v>
+        <v>88899</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4769</v>
+        <v>3286</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575037.2974304935</v>
+        <v>575021</v>
       </c>
       <c r="R2" t="n">
-        <v>6703389.027347369</v>
+        <v>6703397</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -753,19 +754,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,22 +771,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111896690</v>
+        <v>111896636</v>
       </c>
       <c r="B3" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +799,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +823,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575060.2881161601</v>
+        <v>575109</v>
       </c>
       <c r="R3" t="n">
-        <v>6703376.67477417</v>
+        <v>6703418</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -865,28 +856,17 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -905,7 +885,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896638</v>
+        <v>111896633</v>
       </c>
       <c r="B4" t="n">
         <v>90332</v>
@@ -945,10 +925,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575087.1320314853</v>
+        <v>575100</v>
       </c>
       <c r="R4" t="n">
-        <v>6703393.020834555</v>
+        <v>6703444</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -978,19 +958,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1017,7 +987,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111896641</v>
+        <v>111896638</v>
       </c>
       <c r="B5" t="n">
         <v>90332</v>
@@ -1057,10 +1027,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575021.3626164712</v>
+        <v>575087</v>
       </c>
       <c r="R5" t="n">
-        <v>6703370.933926445</v>
+        <v>6703393</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1090,19 +1060,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1129,10 +1089,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111884093</v>
+        <v>111883983</v>
       </c>
       <c r="B6" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,35 +1105,35 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575065.9914513066</v>
+        <v>575058</v>
       </c>
       <c r="R6" t="n">
-        <v>6703387.648325931</v>
+        <v>6703446</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1203,19 +1163,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1242,7 +1192,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111896637</v>
+        <v>111896644</v>
       </c>
       <c r="B7" t="n">
         <v>90332</v>
@@ -1282,10 +1232,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575088.0587098968</v>
+        <v>575036</v>
       </c>
       <c r="R7" t="n">
-        <v>6703396.00058554</v>
+        <v>6703432</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1315,19 +1265,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1354,7 +1294,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111896640</v>
+        <v>111896641</v>
       </c>
       <c r="B8" t="n">
         <v>90332</v>
@@ -1394,10 +1334,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575025.3556637274</v>
+        <v>575021</v>
       </c>
       <c r="R8" t="n">
-        <v>6703369.042946251</v>
+        <v>6703371</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1427,19 +1367,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1466,10 +1396,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111896633</v>
+        <v>111884133</v>
       </c>
       <c r="B9" t="n">
-        <v>90332</v>
+        <v>88899</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1478,38 +1408,39 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4769</v>
+        <v>3286</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575100.4050603262</v>
+        <v>575059</v>
       </c>
       <c r="R9" t="n">
-        <v>6703444.118284944</v>
+        <v>6703389</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1539,19 +1470,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1566,19 +1487,19 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111896639</v>
+        <v>111896634</v>
       </c>
       <c r="B10" t="n">
         <v>90332</v>
@@ -1618,10 +1539,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575089.384229039</v>
+        <v>575048</v>
       </c>
       <c r="R10" t="n">
-        <v>6703379.745088123</v>
+        <v>6703452</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1651,19 +1572,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1690,10 +1601,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111896636</v>
+        <v>111896654</v>
       </c>
       <c r="B11" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1706,21 +1617,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1730,10 +1641,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575108.85141061</v>
+        <v>575073</v>
       </c>
       <c r="R11" t="n">
-        <v>6703418.142308297</v>
+        <v>6703422</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1763,19 +1674,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1802,10 +1703,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111884133</v>
+        <v>111896642</v>
       </c>
       <c r="B12" t="n">
-        <v>88899</v>
+        <v>90332</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1814,39 +1715,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3286</v>
+        <v>4769</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575059.034285416</v>
+        <v>575014</v>
       </c>
       <c r="R12" t="n">
-        <v>6703389.477814267</v>
+        <v>6703387</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1876,19 +1776,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1903,19 +1793,19 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111883983</v>
+        <v>111896643</v>
       </c>
       <c r="B13" t="n">
         <v>90332</v>
@@ -1949,17 +1839,16 @@
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575058.3527020445</v>
+        <v>575039</v>
       </c>
       <c r="R13" t="n">
-        <v>6703446.206921679</v>
+        <v>6703416</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1989,19 +1878,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2016,22 +1895,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111896653</v>
+        <v>111896637</v>
       </c>
       <c r="B14" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2044,21 +1923,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2068,10 +1947,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575075.050630242</v>
+        <v>575088</v>
       </c>
       <c r="R14" t="n">
-        <v>6703403.625642136</v>
+        <v>6703396</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2101,19 +1980,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2140,10 +2009,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111896643</v>
+        <v>111896653</v>
       </c>
       <c r="B15" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2156,21 +2025,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2180,10 +2049,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575038.7114136803</v>
+        <v>575075</v>
       </c>
       <c r="R15" t="n">
-        <v>6703416.194821274</v>
+        <v>6703404</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2213,19 +2082,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2252,10 +2111,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111896655</v>
+        <v>111896690</v>
       </c>
       <c r="B16" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2268,21 +2127,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2292,10 +2151,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575104.6742508161</v>
+        <v>575060</v>
       </c>
       <c r="R16" t="n">
-        <v>6703428.910891063</v>
+        <v>6703377</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2325,27 +2184,18 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2364,10 +2214,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111896634</v>
+        <v>111896655</v>
       </c>
       <c r="B17" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2380,21 +2230,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2404,10 +2254,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575048.3395925189</v>
+        <v>575105</v>
       </c>
       <c r="R17" t="n">
-        <v>6703452.413791304</v>
+        <v>6703429</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2437,19 +2287,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2476,7 +2316,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111896642</v>
+        <v>111896640</v>
       </c>
       <c r="B18" t="n">
         <v>90332</v>
@@ -2516,10 +2356,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575014.1091647458</v>
+        <v>575025</v>
       </c>
       <c r="R18" t="n">
-        <v>6703387.066676207</v>
+        <v>6703369</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2549,19 +2389,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2588,10 +2418,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111884471</v>
+        <v>111896652</v>
       </c>
       <c r="B19" t="n">
-        <v>88899</v>
+        <v>89183</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2600,39 +2430,38 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3286</v>
+        <v>3215</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575020.8210917887</v>
+        <v>575067</v>
       </c>
       <c r="R19" t="n">
-        <v>6703397.074168184</v>
+        <v>6703456</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2662,19 +2491,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2689,22 +2508,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111896652</v>
+        <v>111896635</v>
       </c>
       <c r="B20" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2717,21 +2536,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2741,10 +2560,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>575066.556649723</v>
+        <v>575037</v>
       </c>
       <c r="R20" t="n">
-        <v>6703455.751857814</v>
+        <v>6703389</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2774,19 +2593,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2813,10 +2622,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111896654</v>
+        <v>111884093</v>
       </c>
       <c r="B21" t="n">
-        <v>89183</v>
+        <v>98535</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2829,34 +2638,35 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3215</v>
+        <v>222498</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575072.6962527435</v>
+        <v>575066</v>
       </c>
       <c r="R21" t="n">
-        <v>6703421.833381963</v>
+        <v>6703388</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2886,19 +2696,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2913,19 +2713,19 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111896644</v>
+        <v>111896639</v>
       </c>
       <c r="B22" t="n">
         <v>90332</v>
@@ -2965,10 +2765,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575036.4083237475</v>
+        <v>575089</v>
       </c>
       <c r="R22" t="n">
-        <v>6703431.936489306</v>
+        <v>6703380</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -2998,19 +2798,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3077,10 +2867,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>575051.354848919</v>
+        <v>575051</v>
       </c>
       <c r="R23" t="n">
-        <v>6703378.463325701</v>
+        <v>6703378</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3110,19 +2900,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3200,10 +2980,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>575058.4344827051</v>
+        <v>575058</v>
       </c>
       <c r="R24" t="n">
-        <v>6703442.261289957</v>
+        <v>6703442</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3233,19 +3013,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">

--- a/artfynd/A 13749-2023.xlsx
+++ b/artfynd/A 13749-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111884471</v>
+        <v>111896637</v>
       </c>
       <c r="B2" t="n">
-        <v>88899</v>
+        <v>90466</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,39 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3286</v>
+        <v>4769</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575021</v>
+        <v>575088</v>
       </c>
       <c r="R2" t="n">
-        <v>6703397</v>
+        <v>6703396</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -771,22 +770,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111896636</v>
+        <v>111896640</v>
       </c>
       <c r="B3" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -823,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575109</v>
+        <v>575025</v>
       </c>
       <c r="R3" t="n">
-        <v>6703418</v>
+        <v>6703369</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -885,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896633</v>
+        <v>111896638</v>
       </c>
       <c r="B4" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575100</v>
+        <v>575087</v>
       </c>
       <c r="R4" t="n">
-        <v>6703444</v>
+        <v>6703393</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -987,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111896638</v>
+        <v>111896654</v>
       </c>
       <c r="B5" t="n">
-        <v>90332</v>
+        <v>89317</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1003,21 +1002,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1027,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575087</v>
+        <v>575073</v>
       </c>
       <c r="R5" t="n">
-        <v>6703393</v>
+        <v>6703422</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1089,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111883983</v>
+        <v>111884133</v>
       </c>
       <c r="B6" t="n">
-        <v>90332</v>
+        <v>89033</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1101,25 +1100,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4769</v>
+        <v>3286</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1130,10 +1129,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575058</v>
+        <v>575059</v>
       </c>
       <c r="R6" t="n">
-        <v>6703446</v>
+        <v>6703389</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1192,10 +1191,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111896644</v>
+        <v>111896643</v>
       </c>
       <c r="B7" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1232,10 +1231,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575036</v>
+        <v>575039</v>
       </c>
       <c r="R7" t="n">
-        <v>6703432</v>
+        <v>6703416</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1294,10 +1293,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111896641</v>
+        <v>111884093</v>
       </c>
       <c r="B8" t="n">
-        <v>90332</v>
+        <v>98961</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1310,34 +1309,35 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575021</v>
+        <v>575066</v>
       </c>
       <c r="R8" t="n">
-        <v>6703371</v>
+        <v>6703388</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1384,22 +1384,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111884133</v>
+        <v>111896690</v>
       </c>
       <c r="B9" t="n">
-        <v>88899</v>
+        <v>90821</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1408,39 +1408,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3286</v>
+        <v>5964</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575059</v>
+        <v>575060</v>
       </c>
       <c r="R9" t="n">
-        <v>6703389</v>
+        <v>6703377</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1481,28 +1480,29 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111896634</v>
+        <v>111896639</v>
       </c>
       <c r="B10" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1539,10 +1539,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575048</v>
+        <v>575089</v>
       </c>
       <c r="R10" t="n">
-        <v>6703452</v>
+        <v>6703380</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111896654</v>
+        <v>111896644</v>
       </c>
       <c r="B11" t="n">
-        <v>89183</v>
+        <v>90466</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1617,21 +1617,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1641,10 +1641,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575073</v>
+        <v>575036</v>
       </c>
       <c r="R11" t="n">
-        <v>6703422</v>
+        <v>6703432</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1703,10 +1703,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111896642</v>
+        <v>111896652</v>
       </c>
       <c r="B12" t="n">
-        <v>90332</v>
+        <v>89317</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1719,21 +1719,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1743,10 +1743,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575014</v>
+        <v>575067</v>
       </c>
       <c r="R12" t="n">
-        <v>6703387</v>
+        <v>6703456</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111896643</v>
+        <v>111896655</v>
       </c>
       <c r="B13" t="n">
-        <v>90332</v>
+        <v>89317</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1821,21 +1821,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575039</v>
+        <v>575105</v>
       </c>
       <c r="R13" t="n">
-        <v>6703416</v>
+        <v>6703429</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1907,10 +1907,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111896637</v>
+        <v>111896642</v>
       </c>
       <c r="B14" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1947,10 +1947,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575088</v>
+        <v>575014</v>
       </c>
       <c r="R14" t="n">
-        <v>6703396</v>
+        <v>6703387</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2009,10 +2009,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111896653</v>
+        <v>111896634</v>
       </c>
       <c r="B15" t="n">
-        <v>89183</v>
+        <v>90466</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2025,21 +2025,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2049,10 +2049,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575075</v>
+        <v>575048</v>
       </c>
       <c r="R15" t="n">
-        <v>6703404</v>
+        <v>6703452</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2111,10 +2111,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111896690</v>
+        <v>111896636</v>
       </c>
       <c r="B16" t="n">
-        <v>90687</v>
+        <v>90466</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2127,21 +2127,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575060</v>
+        <v>575109</v>
       </c>
       <c r="R16" t="n">
-        <v>6703377</v>
+        <v>6703418</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2195,7 +2195,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2214,10 +2213,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111896655</v>
+        <v>111896635</v>
       </c>
       <c r="B17" t="n">
-        <v>89183</v>
+        <v>90466</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2230,21 +2229,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2254,10 +2253,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575105</v>
+        <v>575037</v>
       </c>
       <c r="R17" t="n">
-        <v>6703429</v>
+        <v>6703389</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2316,10 +2315,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111896640</v>
+        <v>111883983</v>
       </c>
       <c r="B18" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2350,16 +2349,17 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575025</v>
+        <v>575058</v>
       </c>
       <c r="R18" t="n">
-        <v>6703369</v>
+        <v>6703446</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2406,22 +2406,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111896652</v>
+        <v>111896641</v>
       </c>
       <c r="B19" t="n">
-        <v>89183</v>
+        <v>90466</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2434,21 +2434,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2458,10 +2458,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575067</v>
+        <v>575021</v>
       </c>
       <c r="R19" t="n">
-        <v>6703456</v>
+        <v>6703371</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111896635</v>
+        <v>111896633</v>
       </c>
       <c r="B20" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2560,10 +2560,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>575037</v>
+        <v>575100</v>
       </c>
       <c r="R20" t="n">
-        <v>6703389</v>
+        <v>6703444</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2622,10 +2622,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111884093</v>
+        <v>111884471</v>
       </c>
       <c r="B21" t="n">
-        <v>98535</v>
+        <v>89033</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2634,39 +2634,39 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222498</v>
+        <v>3286</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575066</v>
+        <v>575021</v>
       </c>
       <c r="R21" t="n">
-        <v>6703388</v>
+        <v>6703397</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111896639</v>
+        <v>111896653</v>
       </c>
       <c r="B22" t="n">
-        <v>90332</v>
+        <v>89317</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2741,21 +2741,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2765,10 +2765,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575089</v>
+        <v>575075</v>
       </c>
       <c r="R22" t="n">
-        <v>6703380</v>
+        <v>6703404</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -2830,7 +2830,7 @@
         <v>112204545</v>
       </c>
       <c r="B23" t="n">
-        <v>90687</v>
+        <v>90821</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>112204541</v>
       </c>
       <c r="B24" t="n">
-        <v>88966</v>
+        <v>89100</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>

--- a/artfynd/A 13749-2023.xlsx
+++ b/artfynd/A 13749-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111896637</v>
+        <v>111896690</v>
       </c>
       <c r="B2" t="n">
-        <v>90466</v>
+        <v>90835</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575088</v>
+        <v>575060</v>
       </c>
       <c r="R2" t="n">
-        <v>6703396</v>
+        <v>6703377</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -764,6 +764,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -782,10 +783,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111896640</v>
+        <v>111896637</v>
       </c>
       <c r="B3" t="n">
-        <v>90466</v>
+        <v>90480</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,10 +823,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575025</v>
+        <v>575088</v>
       </c>
       <c r="R3" t="n">
-        <v>6703369</v>
+        <v>6703396</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -884,10 +885,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111896638</v>
+        <v>111896652</v>
       </c>
       <c r="B4" t="n">
-        <v>90466</v>
+        <v>89331</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -900,21 +901,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -924,10 +925,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575087</v>
+        <v>575067</v>
       </c>
       <c r="R4" t="n">
-        <v>6703393</v>
+        <v>6703456</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -986,10 +987,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111896654</v>
+        <v>111896644</v>
       </c>
       <c r="B5" t="n">
-        <v>89317</v>
+        <v>90480</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1002,21 +1003,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1026,10 +1027,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575073</v>
+        <v>575036</v>
       </c>
       <c r="R5" t="n">
-        <v>6703422</v>
+        <v>6703432</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1088,10 +1089,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111884133</v>
+        <v>111883983</v>
       </c>
       <c r="B6" t="n">
-        <v>89033</v>
+        <v>90480</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1100,25 +1101,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3286</v>
+        <v>4769</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1129,10 +1130,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575059</v>
+        <v>575058</v>
       </c>
       <c r="R6" t="n">
-        <v>6703389</v>
+        <v>6703446</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1191,10 +1192,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111896643</v>
+        <v>111896642</v>
       </c>
       <c r="B7" t="n">
-        <v>90466</v>
+        <v>90480</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1231,10 +1232,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575039</v>
+        <v>575014</v>
       </c>
       <c r="R7" t="n">
-        <v>6703416</v>
+        <v>6703387</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1293,10 +1294,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111884093</v>
+        <v>111896633</v>
       </c>
       <c r="B8" t="n">
-        <v>98961</v>
+        <v>90480</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1309,35 +1310,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kopparåsen (Kopparåsen), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575066</v>
+        <v>575100</v>
       </c>
       <c r="R8" t="n">
-        <v>6703388</v>
+        <v>6703444</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1384,22 +1384,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111896690</v>
+        <v>111896634</v>
       </c>
       <c r="B9" t="n">
-        <v>90821</v>
+        <v>90480</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1412,21 +1412,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1436,10 +1436,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575060</v>
+        <v>575048</v>
       </c>
       <c r="R9" t="n">
-        <v>6703377</v>
+        <v>6703452</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1480,7 +1480,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1499,10 +1498,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111896639</v>
+        <v>111896653</v>
       </c>
       <c r="B10" t="n">
-        <v>90466</v>
+        <v>89331</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1515,21 +1514,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1539,10 +1538,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575089</v>
+        <v>575075</v>
       </c>
       <c r="R10" t="n">
-        <v>6703380</v>
+        <v>6703404</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1601,10 +1600,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111896644</v>
+        <v>111884471</v>
       </c>
       <c r="B11" t="n">
-        <v>90466</v>
+        <v>89047</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1613,38 +1612,39 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4769</v>
+        <v>3286</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575036</v>
+        <v>575021</v>
       </c>
       <c r="R11" t="n">
-        <v>6703432</v>
+        <v>6703397</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1691,22 +1691,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111896652</v>
+        <v>111896635</v>
       </c>
       <c r="B12" t="n">
-        <v>89317</v>
+        <v>90480</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1719,21 +1719,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1743,10 +1743,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575067</v>
+        <v>575037</v>
       </c>
       <c r="R12" t="n">
-        <v>6703456</v>
+        <v>6703389</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111896655</v>
+        <v>111896640</v>
       </c>
       <c r="B13" t="n">
-        <v>89317</v>
+        <v>90480</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1821,21 +1821,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575105</v>
+        <v>575025</v>
       </c>
       <c r="R13" t="n">
-        <v>6703429</v>
+        <v>6703369</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1907,10 +1907,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111896642</v>
+        <v>111896641</v>
       </c>
       <c r="B14" t="n">
-        <v>90466</v>
+        <v>90480</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1947,10 +1947,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575014</v>
+        <v>575021</v>
       </c>
       <c r="R14" t="n">
-        <v>6703387</v>
+        <v>6703371</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2009,10 +2009,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111896634</v>
+        <v>111896638</v>
       </c>
       <c r="B15" t="n">
-        <v>90466</v>
+        <v>90480</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2049,10 +2049,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575048</v>
+        <v>575087</v>
       </c>
       <c r="R15" t="n">
-        <v>6703452</v>
+        <v>6703393</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2111,10 +2111,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111896636</v>
+        <v>111884093</v>
       </c>
       <c r="B16" t="n">
-        <v>90466</v>
+        <v>98980</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2127,34 +2127,35 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kopparåsen (Kopparåsen), Gstr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575109</v>
+        <v>575066</v>
       </c>
       <c r="R16" t="n">
-        <v>6703418</v>
+        <v>6703388</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2201,22 +2202,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111896635</v>
+        <v>111884133</v>
       </c>
       <c r="B17" t="n">
-        <v>90466</v>
+        <v>89047</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2225,35 +2226,36 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4769</v>
+        <v>3286</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575037</v>
+        <v>575059</v>
       </c>
       <c r="R17" t="n">
         <v>6703389</v>
@@ -2303,22 +2305,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111883983</v>
+        <v>111896639</v>
       </c>
       <c r="B18" t="n">
-        <v>90466</v>
+        <v>90480</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2349,17 +2351,16 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575058</v>
+        <v>575089</v>
       </c>
       <c r="R18" t="n">
-        <v>6703446</v>
+        <v>6703380</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2406,22 +2407,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111896641</v>
+        <v>111896655</v>
       </c>
       <c r="B19" t="n">
-        <v>90466</v>
+        <v>89331</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2434,21 +2435,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2458,10 +2459,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575021</v>
+        <v>575105</v>
       </c>
       <c r="R19" t="n">
-        <v>6703371</v>
+        <v>6703429</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2520,10 +2521,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111896633</v>
+        <v>111896654</v>
       </c>
       <c r="B20" t="n">
-        <v>90466</v>
+        <v>89331</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2536,21 +2537,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2560,10 +2561,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>575100</v>
+        <v>575073</v>
       </c>
       <c r="R20" t="n">
-        <v>6703444</v>
+        <v>6703422</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2622,10 +2623,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111884471</v>
+        <v>111896643</v>
       </c>
       <c r="B21" t="n">
-        <v>89033</v>
+        <v>90480</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2634,39 +2635,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3286</v>
+        <v>4769</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575021</v>
+        <v>575039</v>
       </c>
       <c r="R21" t="n">
-        <v>6703397</v>
+        <v>6703416</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2713,22 +2713,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111896653</v>
+        <v>111896636</v>
       </c>
       <c r="B22" t="n">
-        <v>89317</v>
+        <v>90480</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2741,21 +2741,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2765,10 +2765,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575075</v>
+        <v>575109</v>
       </c>
       <c r="R22" t="n">
-        <v>6703404</v>
+        <v>6703418</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -2830,7 +2830,7 @@
         <v>112204545</v>
       </c>
       <c r="B23" t="n">
-        <v>90821</v>
+        <v>90835</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>112204541</v>
       </c>
       <c r="B24" t="n">
-        <v>89100</v>
+        <v>89114</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
